--- a/future_dates.xlsx
+++ b/future_dates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,7 +921,15 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44381</v>
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>44408</v>
       </c>
     </row>
   </sheetData>

--- a/future_dates.xlsx
+++ b/future_dates.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -56,19 +56,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,7 +921,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44377</v>
+        <v>44381</v>
       </c>
     </row>
     <row r="62">
@@ -929,10 +929,74 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44408</v>
+        <v>44388</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44395</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44402</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44444</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/future_dates.xlsx
+++ b/future_dates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,46 +956,6 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>44416</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>44423</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>44430</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>44437</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>44444</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
